--- a/data_year/zb/对外经济贸易/出口货物分类金额(按SITC分类).xlsx
+++ b/data_year/zb/对外经济贸易/出口货物分类金额(按SITC分类).xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N22"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -503,967 +503,599 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2000年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>249203</v>
+        <v>1577754</v>
       </c>
       <c r="C2" t="n">
-        <v>25460</v>
+        <v>81685.755</v>
       </c>
       <c r="D2" t="n">
-        <v>116</v>
+        <v>355.465</v>
       </c>
       <c r="E2" t="n">
-        <v>12098</v>
+        <v>87571.92600000001</v>
       </c>
       <c r="F2" t="n">
-        <v>223743</v>
+        <v>1496068.56</v>
       </c>
       <c r="G2" t="n">
-        <v>42546</v>
+        <v>249108.067</v>
       </c>
       <c r="H2" t="n">
-        <v>221</v>
+        <v>1467.884</v>
       </c>
       <c r="I2" t="n">
-        <v>82600</v>
+        <v>780268.755</v>
       </c>
       <c r="J2" t="n">
-        <v>86278</v>
+        <v>377651.927</v>
       </c>
       <c r="K2" t="n">
-        <v>7855</v>
+        <v>26673.092</v>
       </c>
       <c r="L2" t="n">
-        <v>4462</v>
+        <v>11603.027</v>
       </c>
       <c r="M2" t="n">
-        <v>12282</v>
+        <v>41148.26</v>
       </c>
       <c r="N2" t="n">
-        <v>745</v>
+        <v>1905.91</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2001年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>266098</v>
+        <v>1898381</v>
       </c>
       <c r="C3" t="n">
-        <v>26338</v>
+        <v>100545</v>
       </c>
       <c r="D3" t="n">
-        <v>111</v>
+        <v>526</v>
       </c>
       <c r="E3" t="n">
-        <v>13352</v>
+        <v>114788</v>
       </c>
       <c r="F3" t="n">
-        <v>239760</v>
+        <v>1797836</v>
       </c>
       <c r="G3" t="n">
-        <v>43813</v>
+        <v>319560</v>
       </c>
       <c r="H3" t="n">
-        <v>584</v>
+        <v>2343</v>
       </c>
       <c r="I3" t="n">
-        <v>94901</v>
+        <v>901774</v>
       </c>
       <c r="J3" t="n">
-        <v>87110</v>
+        <v>459370</v>
       </c>
       <c r="K3" t="n">
-        <v>8405</v>
+        <v>32274</v>
       </c>
       <c r="L3" t="n">
-        <v>4172</v>
+        <v>14977</v>
       </c>
       <c r="M3" t="n">
-        <v>12777</v>
+        <v>50493</v>
       </c>
       <c r="N3" t="n">
-        <v>873</v>
+        <v>2276</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2002年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>325596</v>
+        <v>2048714</v>
       </c>
       <c r="C4" t="n">
-        <v>28540</v>
+        <v>100558.212</v>
       </c>
       <c r="D4" t="n">
-        <v>98</v>
+        <v>544.473</v>
       </c>
       <c r="E4" t="n">
-        <v>15325</v>
+        <v>113565.357</v>
       </c>
       <c r="F4" t="n">
-        <v>297056</v>
+        <v>1948156.134</v>
       </c>
       <c r="G4" t="n">
-        <v>52955</v>
+        <v>333140.809</v>
       </c>
       <c r="H4" t="n">
-        <v>648</v>
+        <v>1416.792</v>
       </c>
       <c r="I4" t="n">
-        <v>126976</v>
+        <v>964361.302</v>
       </c>
       <c r="J4" t="n">
-        <v>101153</v>
+        <v>535671.874</v>
       </c>
       <c r="K4" t="n">
-        <v>8435</v>
+        <v>31006.959</v>
       </c>
       <c r="L4" t="n">
-        <v>4402</v>
+        <v>14341.466</v>
       </c>
       <c r="M4" t="n">
-        <v>14621</v>
+        <v>52074.909</v>
       </c>
       <c r="N4" t="n">
-        <v>984</v>
+        <v>2590.405</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2003年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>438228</v>
+        <v>2209004</v>
       </c>
       <c r="C5" t="n">
-        <v>34812</v>
+        <v>107267.627</v>
       </c>
       <c r="D5" t="n">
-        <v>115</v>
+        <v>583.832</v>
       </c>
       <c r="E5" t="n">
-        <v>19581</v>
+        <v>119617.54</v>
       </c>
       <c r="F5" t="n">
-        <v>403416</v>
+        <v>2101736.372</v>
       </c>
       <c r="G5" t="n">
-        <v>69018</v>
+        <v>360606.39</v>
       </c>
       <c r="H5" t="n">
-        <v>956</v>
+        <v>1729.045</v>
       </c>
       <c r="I5" t="n">
-        <v>187773</v>
+        <v>1038534.386</v>
       </c>
       <c r="J5" t="n">
-        <v>126088</v>
+        <v>581249.0110000001</v>
       </c>
       <c r="K5" t="n">
-        <v>11114</v>
+        <v>33786.102</v>
       </c>
       <c r="L5" t="n">
-        <v>5032</v>
+        <v>14562.732</v>
       </c>
       <c r="M5" t="n">
-        <v>17531</v>
+        <v>55726.089</v>
       </c>
       <c r="N5" t="n">
-        <v>1019</v>
+        <v>2608.873</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>593326</v>
+        <v>2342293</v>
       </c>
       <c r="C6" t="n">
-        <v>40549</v>
+        <v>112692.127</v>
       </c>
       <c r="D6" t="n">
-        <v>148</v>
+        <v>623.122</v>
       </c>
       <c r="E6" t="n">
-        <v>26360</v>
+        <v>134543.225</v>
       </c>
       <c r="F6" t="n">
-        <v>552777</v>
+        <v>2229600.57</v>
       </c>
       <c r="G6" t="n">
-        <v>100646</v>
+        <v>400224.208</v>
       </c>
       <c r="H6" t="n">
-        <v>1112</v>
+        <v>2267.162</v>
       </c>
       <c r="I6" t="n">
-        <v>268260</v>
+        <v>1070504.351</v>
       </c>
       <c r="J6" t="n">
-        <v>156398</v>
+        <v>622061.623</v>
       </c>
       <c r="K6" t="n">
-        <v>14480</v>
+        <v>34446.007</v>
       </c>
       <c r="L6" t="n">
-        <v>5843.2</v>
+        <v>15826.367</v>
       </c>
       <c r="M6" t="n">
-        <v>18864</v>
+        <v>58913.616</v>
       </c>
       <c r="N6" t="n">
-        <v>1214</v>
+        <v>2883.014</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>761953</v>
+        <v>2273468</v>
       </c>
       <c r="C7" t="n">
-        <v>49037</v>
+        <v>103927.110256</v>
       </c>
       <c r="D7" t="n">
-        <v>268</v>
+        <v>644.816292</v>
       </c>
       <c r="E7" t="n">
-        <v>35772</v>
+        <v>129579.574716</v>
       </c>
       <c r="F7" t="n">
-        <v>712916</v>
+        <v>2169541.113857</v>
       </c>
       <c r="G7" t="n">
-        <v>129121</v>
+        <v>391017.711354</v>
       </c>
       <c r="H7" t="n">
-        <v>1606</v>
+        <v>2380.944651</v>
       </c>
       <c r="I7" t="n">
-        <v>352234</v>
+        <v>1059118.224089</v>
       </c>
       <c r="J7" t="n">
-        <v>194183</v>
+        <v>587444.659047</v>
       </c>
       <c r="K7" t="n">
-        <v>17622</v>
+        <v>27901.511433</v>
       </c>
       <c r="L7" t="n">
-        <v>7484</v>
+        <v>13917.136332</v>
       </c>
       <c r="M7" t="n">
-        <v>22480</v>
+        <v>58154.35589899999</v>
       </c>
       <c r="N7" t="n">
-        <v>1183</v>
+        <v>3309.2903</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>968978</v>
+        <v>2097631</v>
       </c>
       <c r="C8" t="n">
-        <v>52919</v>
+        <v>105186.792</v>
       </c>
       <c r="D8" t="n">
-        <v>373</v>
+        <v>575.138</v>
       </c>
       <c r="E8" t="n">
-        <v>44530</v>
+        <v>121928.761</v>
       </c>
       <c r="F8" t="n">
-        <v>916017</v>
+        <v>1992444.401</v>
       </c>
       <c r="G8" t="n">
-        <v>174816</v>
+        <v>351244.676</v>
       </c>
       <c r="H8" t="n">
-        <v>2315</v>
+        <v>5570.285</v>
       </c>
       <c r="I8" t="n">
-        <v>456343</v>
+        <v>984212.264</v>
       </c>
       <c r="J8" t="n">
-        <v>238014</v>
+        <v>529488.414</v>
       </c>
       <c r="K8" t="n">
-        <v>17770</v>
+        <v>26873.185</v>
       </c>
       <c r="L8" t="n">
-        <v>7860</v>
+        <v>13101.67</v>
       </c>
       <c r="M8" t="n">
-        <v>25723</v>
+        <v>61097.646</v>
       </c>
       <c r="N8" t="n">
-        <v>1193</v>
+        <v>3539.152</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1220060</v>
+        <v>2263340</v>
       </c>
       <c r="C9" t="n">
-        <v>61509.101</v>
+        <v>117733.186</v>
       </c>
       <c r="D9" t="n">
-        <v>302.755</v>
+        <v>809.8920000000001</v>
       </c>
       <c r="E9" t="n">
-        <v>60323.845</v>
+        <v>141293.46</v>
       </c>
       <c r="F9" t="n">
-        <v>1156266.655</v>
+        <v>2145638.143</v>
       </c>
       <c r="G9" t="n">
-        <v>219877.195</v>
+        <v>368564.136</v>
       </c>
       <c r="H9" t="n">
-        <v>2176.487</v>
+        <v>5759.692</v>
       </c>
       <c r="I9" t="n">
-        <v>577044.6629999999</v>
+        <v>1082329.148</v>
       </c>
       <c r="J9" t="n">
-        <v>296844.464</v>
+        <v>547691.7070000001</v>
       </c>
       <c r="K9" t="n">
-        <v>19950.868</v>
+        <v>35389.098</v>
       </c>
       <c r="L9" t="n">
-        <v>9116.295</v>
+        <v>15439.768</v>
       </c>
       <c r="M9" t="n">
-        <v>30742.648</v>
+        <v>62626.14</v>
       </c>
       <c r="N9" t="n">
-        <v>1396.535</v>
+        <v>3468.288</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1430693</v>
+        <v>2486700</v>
       </c>
       <c r="C10" t="n">
-        <v>77956.932</v>
+        <v>134992.829</v>
       </c>
       <c r="D10" t="n">
-        <v>573.691</v>
+        <v>1065.178</v>
       </c>
       <c r="E10" t="n">
-        <v>79346.416</v>
+        <v>167465.649</v>
       </c>
       <c r="F10" t="n">
-        <v>1352736.134</v>
+        <v>2351688.681</v>
       </c>
       <c r="G10" t="n">
-        <v>262391.215</v>
+        <v>404659.166</v>
       </c>
       <c r="H10" t="n">
-        <v>1710.033</v>
+        <v>6170.562</v>
       </c>
       <c r="I10" t="n">
-        <v>673329.153</v>
+        <v>1207787.541</v>
       </c>
       <c r="J10" t="n">
-        <v>335959.317</v>
+        <v>565605.763</v>
       </c>
       <c r="K10" t="n">
-        <v>31772.923</v>
+        <v>46722.217</v>
       </c>
       <c r="L10" t="n">
-        <v>11318.901</v>
+        <v>18021.011</v>
       </c>
       <c r="M10" t="n">
-        <v>32761.992</v>
+        <v>65471.187</v>
       </c>
       <c r="N10" t="n">
-        <v>1529.425</v>
+        <v>3713.236</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1201612</v>
+        <v>2499480</v>
       </c>
       <c r="C11" t="n">
-        <v>63111.794</v>
+        <v>133969.569535</v>
       </c>
       <c r="D11" t="n">
-        <v>316.252</v>
+        <v>1154.306842</v>
       </c>
       <c r="E11" t="n">
-        <v>62017.021</v>
+        <v>161765.389938</v>
       </c>
       <c r="F11" t="n">
-        <v>1138483.473</v>
+        <v>2365512.519653</v>
       </c>
       <c r="G11" t="n">
-        <v>184815.98</v>
+        <v>406732.633337</v>
       </c>
       <c r="H11" t="n">
-        <v>1629.134</v>
+        <v>18068.769117</v>
       </c>
       <c r="I11" t="n">
-        <v>590274.465</v>
+        <v>1195443.574242</v>
       </c>
       <c r="J11" t="n">
-        <v>299746.872</v>
+        <v>583502.153019</v>
       </c>
       <c r="K11" t="n">
-        <v>20373.732</v>
+        <v>47123.139733</v>
       </c>
       <c r="L11" t="n">
-        <v>8153.077</v>
+        <v>17224.103749</v>
       </c>
       <c r="M11" t="n">
-        <v>32627.782</v>
+        <v>65000.160868</v>
       </c>
       <c r="N11" t="n">
-        <v>1640.951</v>
+        <v>3467.858343</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1577754</v>
+        <v>2589950</v>
       </c>
       <c r="C12" t="n">
-        <v>81685.755</v>
+        <v>115629.193157</v>
       </c>
       <c r="D12" t="n">
-        <v>355.465</v>
+        <v>1404.731114</v>
       </c>
       <c r="E12" t="n">
-        <v>87571.92600000001</v>
+        <v>169133.357569</v>
       </c>
       <c r="F12" t="n">
-        <v>1496068.56</v>
+        <v>2474322.313493</v>
       </c>
       <c r="G12" t="n">
-        <v>249108.067</v>
+        <v>434069.82232</v>
       </c>
       <c r="H12" t="n">
-        <v>1467.884</v>
+        <v>28549.727521</v>
       </c>
       <c r="I12" t="n">
-        <v>780268.755</v>
+        <v>1257890.684689</v>
       </c>
       <c r="J12" t="n">
-        <v>377651.927</v>
+        <v>584678.721394</v>
       </c>
       <c r="K12" t="n">
-        <v>26673.092</v>
+        <v>32247.625375</v>
       </c>
       <c r="L12" t="n">
-        <v>11603.027</v>
+        <v>15916.993002</v>
       </c>
       <c r="M12" t="n">
-        <v>41148.26</v>
+        <v>63531.769217</v>
       </c>
       <c r="N12" t="n">
-        <v>1905.91</v>
+        <v>2528.074449</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2021年</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1898381</v>
+        <v>3363023</v>
       </c>
       <c r="C13" t="n">
-        <v>100545</v>
+        <v>140072</v>
       </c>
       <c r="D13" t="n">
-        <v>526</v>
+        <v>2331</v>
       </c>
       <c r="E13" t="n">
-        <v>114788</v>
+        <v>264235</v>
       </c>
       <c r="F13" t="n">
-        <v>1797836</v>
+        <v>3222951</v>
       </c>
       <c r="G13" t="n">
-        <v>319560</v>
+        <v>543268</v>
       </c>
       <c r="H13" t="n">
-        <v>2343</v>
+        <v>40432</v>
       </c>
       <c r="I13" t="n">
-        <v>901774</v>
+        <v>1617740</v>
       </c>
       <c r="J13" t="n">
-        <v>459370</v>
+        <v>757276</v>
       </c>
       <c r="K13" t="n">
-        <v>32274</v>
+        <v>42848</v>
       </c>
       <c r="L13" t="n">
-        <v>14977</v>
+        <v>22297</v>
       </c>
       <c r="M13" t="n">
-        <v>50493</v>
+        <v>69846</v>
       </c>
       <c r="N13" t="n">
-        <v>2276</v>
+        <v>2750</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>2012年</t>
+          <t>2022年</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2048714</v>
+        <v>3593601.450275</v>
       </c>
       <c r="C14" t="n">
-        <v>100558.212</v>
+        <v>169606.101252</v>
       </c>
       <c r="D14" t="n">
-        <v>544.473</v>
+        <v>3566.708316</v>
       </c>
       <c r="E14" t="n">
-        <v>113565.357</v>
+        <v>313321.748847</v>
       </c>
       <c r="F14" t="n">
-        <v>1948156.134</v>
+        <v>3423995.349023</v>
       </c>
       <c r="G14" t="n">
-        <v>333140.809</v>
+        <v>599981.82485</v>
       </c>
       <c r="H14" t="n">
-        <v>1416.792</v>
+        <v>49210.637097</v>
       </c>
       <c r="I14" t="n">
-        <v>964361.302</v>
+        <v>1704732.508966</v>
       </c>
       <c r="J14" t="n">
-        <v>535671.874</v>
+        <v>756748.629263</v>
       </c>
       <c r="K14" t="n">
-        <v>31006.959</v>
+        <v>64328.702234</v>
       </c>
       <c r="L14" t="n">
-        <v>14341.466</v>
+        <v>25030.960051</v>
       </c>
       <c r="M14" t="n">
-        <v>52074.909</v>
+        <v>73610.62035300001</v>
       </c>
       <c r="N14" t="n">
-        <v>2590.405</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2013年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>2209004</v>
-      </c>
-      <c r="C15" t="n">
-        <v>107267.627</v>
-      </c>
-      <c r="D15" t="n">
-        <v>583.832</v>
-      </c>
-      <c r="E15" t="n">
-        <v>119617.54</v>
-      </c>
-      <c r="F15" t="n">
-        <v>2101736.372</v>
-      </c>
-      <c r="G15" t="n">
-        <v>360606.39</v>
-      </c>
-      <c r="H15" t="n">
-        <v>1729.045</v>
-      </c>
-      <c r="I15" t="n">
-        <v>1038534.386</v>
-      </c>
-      <c r="J15" t="n">
-        <v>581249.0110000001</v>
-      </c>
-      <c r="K15" t="n">
-        <v>33786.102</v>
-      </c>
-      <c r="L15" t="n">
-        <v>14562.732</v>
-      </c>
-      <c r="M15" t="n">
-        <v>55726.089</v>
-      </c>
-      <c r="N15" t="n">
-        <v>2608.873</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2014年</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>2342293</v>
-      </c>
-      <c r="C16" t="n">
-        <v>112692.127</v>
-      </c>
-      <c r="D16" t="n">
-        <v>623.122</v>
-      </c>
-      <c r="E16" t="n">
-        <v>134543.225</v>
-      </c>
-      <c r="F16" t="n">
-        <v>2229600.57</v>
-      </c>
-      <c r="G16" t="n">
-        <v>400224.208</v>
-      </c>
-      <c r="H16" t="n">
-        <v>2267.162</v>
-      </c>
-      <c r="I16" t="n">
-        <v>1070504.351</v>
-      </c>
-      <c r="J16" t="n">
-        <v>622061.623</v>
-      </c>
-      <c r="K16" t="n">
-        <v>34446.007</v>
-      </c>
-      <c r="L16" t="n">
-        <v>15826.367</v>
-      </c>
-      <c r="M16" t="n">
-        <v>58913.616</v>
-      </c>
-      <c r="N16" t="n">
-        <v>2883.014</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>2273468</v>
-      </c>
-      <c r="C17" t="n">
-        <v>103927.110256</v>
-      </c>
-      <c r="D17" t="n">
-        <v>644.816292</v>
-      </c>
-      <c r="E17" t="n">
-        <v>129579.574716</v>
-      </c>
-      <c r="F17" t="n">
-        <v>2169541.113857</v>
-      </c>
-      <c r="G17" t="n">
-        <v>391017.711354</v>
-      </c>
-      <c r="H17" t="n">
-        <v>2380.944651</v>
-      </c>
-      <c r="I17" t="n">
-        <v>1059118.224089</v>
-      </c>
-      <c r="J17" t="n">
-        <v>587444.659047</v>
-      </c>
-      <c r="K17" t="n">
-        <v>27901.511433</v>
-      </c>
-      <c r="L17" t="n">
-        <v>13917.136332</v>
-      </c>
-      <c r="M17" t="n">
-        <v>58154.35589899999</v>
-      </c>
-      <c r="N17" t="n">
-        <v>3309.2903</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>2097631.193</v>
-      </c>
-      <c r="C18" t="n">
-        <v>105186.792</v>
-      </c>
-      <c r="D18" t="n">
-        <v>575.138</v>
-      </c>
-      <c r="E18" t="n">
-        <v>121928.761</v>
-      </c>
-      <c r="F18" t="n">
-        <v>1992444.401</v>
-      </c>
-      <c r="G18" t="n">
-        <v>351244.676</v>
-      </c>
-      <c r="H18" t="n">
-        <v>5570.285</v>
-      </c>
-      <c r="I18" t="n">
-        <v>984212.264</v>
-      </c>
-      <c r="J18" t="n">
-        <v>529488.414</v>
-      </c>
-      <c r="K18" t="n">
-        <v>26873.185</v>
-      </c>
-      <c r="L18" t="n">
-        <v>13101.67</v>
-      </c>
-      <c r="M18" t="n">
-        <v>61097.646</v>
-      </c>
-      <c r="N18" t="n">
-        <v>3539.152</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>2263345</v>
-      </c>
-      <c r="C19" t="n">
-        <v>117733.186</v>
-      </c>
-      <c r="D19" t="n">
-        <v>809.8920000000001</v>
-      </c>
-      <c r="E19" t="n">
-        <v>141293.46</v>
-      </c>
-      <c r="F19" t="n">
-        <v>2145638.143</v>
-      </c>
-      <c r="G19" t="n">
-        <v>368564.136</v>
-      </c>
-      <c r="H19" t="n">
-        <v>5759.692</v>
-      </c>
-      <c r="I19" t="n">
-        <v>1082329.148</v>
-      </c>
-      <c r="J19" t="n">
-        <v>547691.7070000001</v>
-      </c>
-      <c r="K19" t="n">
-        <v>35389.098</v>
-      </c>
-      <c r="L19" t="n">
-        <v>15439.768</v>
-      </c>
-      <c r="M19" t="n">
-        <v>62626.14</v>
-      </c>
-      <c r="N19" t="n">
-        <v>3468.288</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>2486682</v>
-      </c>
-      <c r="C20" t="n">
-        <v>134992.829</v>
-      </c>
-      <c r="D20" t="n">
-        <v>1065.178</v>
-      </c>
-      <c r="E20" t="n">
-        <v>167465.649</v>
-      </c>
-      <c r="F20" t="n">
-        <v>2351688.681</v>
-      </c>
-      <c r="G20" t="n">
-        <v>404659.166</v>
-      </c>
-      <c r="H20" t="n">
-        <v>6170.562</v>
-      </c>
-      <c r="I20" t="n">
-        <v>1207787.541</v>
-      </c>
-      <c r="J20" t="n">
-        <v>565605.763</v>
-      </c>
-      <c r="K20" t="n">
-        <v>46722.217</v>
-      </c>
-      <c r="L20" t="n">
-        <v>18021.011</v>
-      </c>
-      <c r="M20" t="n">
-        <v>65471.187</v>
-      </c>
-      <c r="N20" t="n">
-        <v>3713.236</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>2499482.089188</v>
-      </c>
-      <c r="C21" t="n">
-        <v>133969.569535</v>
-      </c>
-      <c r="D21" t="n">
-        <v>1154.306842</v>
-      </c>
-      <c r="E21" t="n">
-        <v>161765.389938</v>
-      </c>
-      <c r="F21" t="n">
-        <v>2365512.519653</v>
-      </c>
-      <c r="G21" t="n">
-        <v>406732.633337</v>
-      </c>
-      <c r="H21" t="n">
-        <v>18068.769117</v>
-      </c>
-      <c r="I21" t="n">
-        <v>1195443.574242</v>
-      </c>
-      <c r="J21" t="n">
-        <v>583502.153019</v>
-      </c>
-      <c r="K21" t="n">
-        <v>47123.139733</v>
-      </c>
-      <c r="L21" t="n">
-        <v>17224.103749</v>
-      </c>
-      <c r="M21" t="n">
-        <v>65000.160868</v>
-      </c>
-      <c r="N21" t="n">
-        <v>3467.858343</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>2020年</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>2589951.607295</v>
-      </c>
-      <c r="C22" t="n">
-        <v>115629.193157</v>
-      </c>
-      <c r="D22" t="n">
-        <v>1404.731114</v>
-      </c>
-      <c r="E22" t="n">
-        <v>169133.357569</v>
-      </c>
-      <c r="F22" t="n">
-        <v>2474322.313493</v>
-      </c>
-      <c r="G22" t="n">
-        <v>434069.82232</v>
-      </c>
-      <c r="H22" t="n">
-        <v>28549.727521</v>
-      </c>
-      <c r="I22" t="n">
-        <v>1257890.684689</v>
-      </c>
-      <c r="J22" t="n">
-        <v>584678.721394</v>
-      </c>
-      <c r="K22" t="n">
-        <v>32247.625375</v>
-      </c>
-      <c r="L22" t="n">
-        <v>15916.993002</v>
-      </c>
-      <c r="M22" t="n">
-        <v>63531.769217</v>
-      </c>
-      <c r="N22" t="n">
-        <v>2528.074449</v>
+        <v>3069.110298</v>
       </c>
     </row>
   </sheetData>
